--- a/files/pre-dea.xlsx
+++ b/files/pre-dea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/nstatuto_ub_edu/Documents/DEAs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C065BC95-335E-452D-BC0B-95D1E3F90761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{C065BC95-335E-452D-BC0B-95D1E3F90761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C04CEE3-EA30-416E-8CF8-71BD482EA877}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{600831CA-5CE0-4E56-B20F-FFA9C475C658}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Universitat Destí</t>
-  </si>
-  <si>
-    <t>enllaç al PD</t>
   </si>
   <si>
     <t xml:space="preserve">Universitat de Barcelona </t>
@@ -58,12 +55,24 @@
   <si>
     <t>nº</t>
   </si>
+  <si>
+    <t>enllaç al PD*</t>
+  </si>
+  <si>
+    <t>estat**</t>
+  </si>
+  <si>
+    <t>**estat=0 (no convalidable), 1 (convalidable)</t>
+  </si>
+  <si>
+    <t>NO MODIFICAR AQUESTE TEMPLATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +83,22 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -107,21 +132,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,142 +682,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CC9E4A-5604-474A-97C2-14F628253A07}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.4609375" customWidth="1"/>
     <col min="2" max="7" width="16.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="C3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="str">
+      <c r="G3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="str">
         <f>IF(B4="","",1)</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="str">
         <f>IF(OR(A4="",B5=""),"",A4+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="str">
         <f t="shared" ref="A6:A16" si="0">IF(OR(A5="",B6=""),"",A5+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="str">
+      <c r="B7" s="5"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="str">
+      <c r="B8" s="5"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="str">
+      <c r="B9" s="5"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="str">
+      <c r="B11" s="5"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="str">
+      <c r="B12" s="5"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A17:H19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/files/pre-dea.xlsx
+++ b/files/pre-dea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/nstatuto_ub_edu/Documents/DEAs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Desktop\basura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{C065BC95-335E-452D-BC0B-95D1E3F90761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C04CEE3-EA30-416E-8CF8-71BD482EA877}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE91166-B36D-4C24-8673-BB2A8F0279E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{600831CA-5CE0-4E56-B20F-FFA9C475C658}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Universitat Destí</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>NO MODIFICAR AQUESTE TEMPLATE</t>
+  </si>
+  <si>
+    <t>comentaris</t>
   </si>
 </sst>
 </file>
@@ -277,46 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,24 +318,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,276 +670,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CC9E4A-5604-474A-97C2-14F628253A07}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.4609375" customWidth="1"/>
     <col min="2" max="7" width="16.765625" customWidth="1"/>
+    <col min="9" max="9" width="10.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="I2" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="str">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
         <f>IF(B4="","",1)</f>
         <v/>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="str">
+      <c r="B4" s="4"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
         <f>IF(OR(A4="",B5=""),"",A4+1)</f>
         <v/>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="str">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A16" si="0">IF(OR(A5="",B6=""),"",A5+1)</f>
         <v/>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="str">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="str">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="str">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="str">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="str">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="str">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="str">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="str">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="str">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="str">
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A17:H19"/>
+  <mergeCells count="7">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A17:I19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
